--- a/Civilworks cost/Spec for EMB PROT Works/Resources_dframe.xlsx
+++ b/Civilworks cost/Spec for EMB PROT Works/Resources_dframe.xlsx
@@ -4036,58 +4036,58 @@
         <v>20</v>
       </c>
       <c r="L13">
-        <v>260</v>
+        <v>170</v>
       </c>
       <c r="M13">
-        <v>260</v>
+        <v>170</v>
       </c>
       <c r="N13">
-        <v>260</v>
+        <v>170</v>
       </c>
       <c r="O13">
-        <v>260</v>
+        <v>170</v>
       </c>
       <c r="P13">
-        <v>260</v>
+        <v>170</v>
       </c>
       <c r="Q13">
-        <v>260</v>
+        <v>170</v>
       </c>
       <c r="R13">
-        <v>260</v>
+        <v>170</v>
       </c>
       <c r="S13">
-        <v>260</v>
+        <v>170</v>
       </c>
       <c r="T13">
-        <v>260</v>
+        <v>170</v>
       </c>
       <c r="U13">
-        <v>260</v>
+        <v>170</v>
       </c>
       <c r="V13">
-        <v>260</v>
+        <v>170</v>
       </c>
       <c r="W13">
-        <v>260</v>
+        <v>170</v>
       </c>
       <c r="X13">
-        <v>260</v>
+        <v>170</v>
       </c>
       <c r="Y13">
-        <v>260</v>
+        <v>170</v>
       </c>
       <c r="Z13">
-        <v>260</v>
+        <v>170</v>
       </c>
       <c r="AA13">
-        <v>260</v>
+        <v>170</v>
       </c>
       <c r="AB13">
-        <v>260</v>
+        <v>170</v>
       </c>
       <c r="AC13">
-        <v>260</v>
+        <v>170</v>
       </c>
       <c r="AD13">
         <v>20</v>
@@ -4255,25 +4255,25 @@
         <v>150</v>
       </c>
       <c r="CG13">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="CH13">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="CI13">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="CJ13">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="CK13">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="CL13">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="CM13">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:91">
@@ -4311,58 +4311,58 @@
         <v>0.05</v>
       </c>
       <c r="L14">
-        <v>0.65</v>
+        <v>0.425</v>
       </c>
       <c r="M14">
-        <v>0.65</v>
+        <v>0.425</v>
       </c>
       <c r="N14">
-        <v>0.65</v>
+        <v>0.425</v>
       </c>
       <c r="O14">
-        <v>0.65</v>
+        <v>0.425</v>
       </c>
       <c r="P14">
-        <v>0.65</v>
+        <v>0.425</v>
       </c>
       <c r="Q14">
-        <v>0.65</v>
+        <v>0.425</v>
       </c>
       <c r="R14">
-        <v>0.65</v>
+        <v>0.425</v>
       </c>
       <c r="S14">
-        <v>0.65</v>
+        <v>0.425</v>
       </c>
       <c r="T14">
-        <v>0.65</v>
+        <v>0.425</v>
       </c>
       <c r="U14">
-        <v>0.65</v>
+        <v>0.425</v>
       </c>
       <c r="V14">
-        <v>0.65</v>
+        <v>0.425</v>
       </c>
       <c r="W14">
-        <v>0.65</v>
+        <v>0.425</v>
       </c>
       <c r="X14">
-        <v>0.65</v>
+        <v>0.425</v>
       </c>
       <c r="Y14">
-        <v>0.65</v>
+        <v>0.425</v>
       </c>
       <c r="Z14">
-        <v>0.65</v>
+        <v>0.425</v>
       </c>
       <c r="AA14">
-        <v>0.65</v>
+        <v>0.425</v>
       </c>
       <c r="AB14">
-        <v>0.65</v>
+        <v>0.425</v>
       </c>
       <c r="AC14">
-        <v>0.65</v>
+        <v>0.425</v>
       </c>
       <c r="AD14">
         <v>0.05</v>
@@ -4530,25 +4530,25 @@
         <v>0.375</v>
       </c>
       <c r="CG14">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="CH14">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="CI14">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="CJ14">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="CK14">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="CL14">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="CM14">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>

--- a/Civilworks cost/Spec for EMB PROT Works/Resources_dframe.xlsx
+++ b/Civilworks cost/Spec for EMB PROT Works/Resources_dframe.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Resourses_uses" sheetId="1" r:id="rId1"/>
+    <sheet name="TYPE_A_281_M_R" sheetId="1" r:id="rId1"/>
+    <sheet name="FF_30M_at_KM_1_R" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="109">
   <si>
     <t>Code</t>
   </si>
@@ -4554,4 +4555,3864 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:CM14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:91">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:91">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>101</v>
+      </c>
+      <c r="C2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>5</v>
+      </c>
+      <c r="M2">
+        <v>5</v>
+      </c>
+      <c r="N2">
+        <v>5</v>
+      </c>
+      <c r="O2">
+        <v>5</v>
+      </c>
+      <c r="P2">
+        <v>5</v>
+      </c>
+      <c r="Q2">
+        <v>5</v>
+      </c>
+      <c r="R2">
+        <v>5</v>
+      </c>
+      <c r="S2">
+        <v>5</v>
+      </c>
+      <c r="T2">
+        <v>5</v>
+      </c>
+      <c r="U2">
+        <v>5</v>
+      </c>
+      <c r="V2">
+        <v>5</v>
+      </c>
+      <c r="W2">
+        <v>5</v>
+      </c>
+      <c r="X2">
+        <v>5</v>
+      </c>
+      <c r="Y2">
+        <v>5</v>
+      </c>
+      <c r="Z2">
+        <v>5</v>
+      </c>
+      <c r="AA2">
+        <v>5</v>
+      </c>
+      <c r="AB2">
+        <v>5</v>
+      </c>
+      <c r="AC2">
+        <v>5</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2">
+        <v>0</v>
+      </c>
+      <c r="BP2">
+        <v>0</v>
+      </c>
+      <c r="BQ2">
+        <v>0</v>
+      </c>
+      <c r="BR2">
+        <v>0</v>
+      </c>
+      <c r="BS2">
+        <v>0</v>
+      </c>
+      <c r="BT2">
+        <v>0</v>
+      </c>
+      <c r="BU2">
+        <v>0</v>
+      </c>
+      <c r="BV2">
+        <v>0</v>
+      </c>
+      <c r="BW2">
+        <v>0</v>
+      </c>
+      <c r="BX2">
+        <v>0</v>
+      </c>
+      <c r="BY2">
+        <v>0</v>
+      </c>
+      <c r="BZ2">
+        <v>0</v>
+      </c>
+      <c r="CA2">
+        <v>0</v>
+      </c>
+      <c r="CB2">
+        <v>0</v>
+      </c>
+      <c r="CC2">
+        <v>0</v>
+      </c>
+      <c r="CD2">
+        <v>0</v>
+      </c>
+      <c r="CE2">
+        <v>0</v>
+      </c>
+      <c r="CF2">
+        <v>0</v>
+      </c>
+      <c r="CG2">
+        <v>0</v>
+      </c>
+      <c r="CH2">
+        <v>0</v>
+      </c>
+      <c r="CI2">
+        <v>0</v>
+      </c>
+      <c r="CJ2">
+        <v>0</v>
+      </c>
+      <c r="CK2">
+        <v>0</v>
+      </c>
+      <c r="CL2">
+        <v>0</v>
+      </c>
+      <c r="CM2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:91">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>102</v>
+      </c>
+      <c r="C3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AA3">
+        <v>1</v>
+      </c>
+      <c r="AB3">
+        <v>1</v>
+      </c>
+      <c r="AC3">
+        <v>1</v>
+      </c>
+      <c r="AD3">
+        <v>1</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
+      </c>
+      <c r="AF3">
+        <v>1</v>
+      </c>
+      <c r="AG3">
+        <v>1</v>
+      </c>
+      <c r="AH3">
+        <v>1</v>
+      </c>
+      <c r="AI3">
+        <v>1</v>
+      </c>
+      <c r="AJ3">
+        <v>1</v>
+      </c>
+      <c r="AK3">
+        <v>1</v>
+      </c>
+      <c r="AL3">
+        <v>1</v>
+      </c>
+      <c r="AM3">
+        <v>1</v>
+      </c>
+      <c r="AN3">
+        <v>1</v>
+      </c>
+      <c r="AO3">
+        <v>1</v>
+      </c>
+      <c r="AP3">
+        <v>1</v>
+      </c>
+      <c r="AQ3">
+        <v>1</v>
+      </c>
+      <c r="AR3">
+        <v>1</v>
+      </c>
+      <c r="AS3">
+        <v>1</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>0</v>
+      </c>
+      <c r="BW3">
+        <v>0</v>
+      </c>
+      <c r="BX3">
+        <v>0</v>
+      </c>
+      <c r="BY3">
+        <v>0</v>
+      </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+      <c r="CA3">
+        <v>0</v>
+      </c>
+      <c r="CB3">
+        <v>0</v>
+      </c>
+      <c r="CC3">
+        <v>0</v>
+      </c>
+      <c r="CD3">
+        <v>0</v>
+      </c>
+      <c r="CE3">
+        <v>0</v>
+      </c>
+      <c r="CF3">
+        <v>0</v>
+      </c>
+      <c r="CG3">
+        <v>1</v>
+      </c>
+      <c r="CH3">
+        <v>1</v>
+      </c>
+      <c r="CI3">
+        <v>1</v>
+      </c>
+      <c r="CJ3">
+        <v>1</v>
+      </c>
+      <c r="CK3">
+        <v>1</v>
+      </c>
+      <c r="CL3">
+        <v>1</v>
+      </c>
+      <c r="CM3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:91">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>103</v>
+      </c>
+      <c r="C4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+      <c r="Z4">
+        <v>1</v>
+      </c>
+      <c r="AA4">
+        <v>1</v>
+      </c>
+      <c r="AB4">
+        <v>1</v>
+      </c>
+      <c r="AC4">
+        <v>1</v>
+      </c>
+      <c r="AD4">
+        <v>1</v>
+      </c>
+      <c r="AE4">
+        <v>1</v>
+      </c>
+      <c r="AF4">
+        <v>1</v>
+      </c>
+      <c r="AG4">
+        <v>1</v>
+      </c>
+      <c r="AH4">
+        <v>1</v>
+      </c>
+      <c r="AI4">
+        <v>1</v>
+      </c>
+      <c r="AJ4">
+        <v>1</v>
+      </c>
+      <c r="AK4">
+        <v>1</v>
+      </c>
+      <c r="AL4">
+        <v>1</v>
+      </c>
+      <c r="AM4">
+        <v>1</v>
+      </c>
+      <c r="AN4">
+        <v>1</v>
+      </c>
+      <c r="AO4">
+        <v>1</v>
+      </c>
+      <c r="AP4">
+        <v>1</v>
+      </c>
+      <c r="AQ4">
+        <v>1</v>
+      </c>
+      <c r="AR4">
+        <v>1</v>
+      </c>
+      <c r="AS4">
+        <v>1</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>0</v>
+      </c>
+      <c r="BS4">
+        <v>0</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
+        <v>0</v>
+      </c>
+      <c r="BW4">
+        <v>0</v>
+      </c>
+      <c r="BX4">
+        <v>0</v>
+      </c>
+      <c r="BY4">
+        <v>0</v>
+      </c>
+      <c r="BZ4">
+        <v>0</v>
+      </c>
+      <c r="CA4">
+        <v>0</v>
+      </c>
+      <c r="CB4">
+        <v>0</v>
+      </c>
+      <c r="CC4">
+        <v>0</v>
+      </c>
+      <c r="CD4">
+        <v>0</v>
+      </c>
+      <c r="CE4">
+        <v>0</v>
+      </c>
+      <c r="CF4">
+        <v>0</v>
+      </c>
+      <c r="CG4">
+        <v>0</v>
+      </c>
+      <c r="CH4">
+        <v>0</v>
+      </c>
+      <c r="CI4">
+        <v>0</v>
+      </c>
+      <c r="CJ4">
+        <v>0</v>
+      </c>
+      <c r="CK4">
+        <v>0</v>
+      </c>
+      <c r="CL4">
+        <v>0</v>
+      </c>
+      <c r="CM4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:91">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>104</v>
+      </c>
+      <c r="C5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>3000</v>
+      </c>
+      <c r="M5">
+        <v>3000</v>
+      </c>
+      <c r="N5">
+        <v>3000</v>
+      </c>
+      <c r="O5">
+        <v>3000</v>
+      </c>
+      <c r="P5">
+        <v>3000</v>
+      </c>
+      <c r="Q5">
+        <v>3000</v>
+      </c>
+      <c r="R5">
+        <v>3000</v>
+      </c>
+      <c r="S5">
+        <v>3000</v>
+      </c>
+      <c r="T5">
+        <v>3000</v>
+      </c>
+      <c r="U5">
+        <v>3000</v>
+      </c>
+      <c r="V5">
+        <v>3000</v>
+      </c>
+      <c r="W5">
+        <v>3000</v>
+      </c>
+      <c r="X5">
+        <v>3000</v>
+      </c>
+      <c r="Y5">
+        <v>3000</v>
+      </c>
+      <c r="Z5">
+        <v>3000</v>
+      </c>
+      <c r="AA5">
+        <v>3000</v>
+      </c>
+      <c r="AB5">
+        <v>3000</v>
+      </c>
+      <c r="AC5">
+        <v>3000</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <v>0</v>
+      </c>
+      <c r="BO5">
+        <v>0</v>
+      </c>
+      <c r="BP5">
+        <v>0</v>
+      </c>
+      <c r="BQ5">
+        <v>0</v>
+      </c>
+      <c r="BR5">
+        <v>0</v>
+      </c>
+      <c r="BS5">
+        <v>0</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BU5">
+        <v>0</v>
+      </c>
+      <c r="BV5">
+        <v>0</v>
+      </c>
+      <c r="BW5">
+        <v>0</v>
+      </c>
+      <c r="BX5">
+        <v>0</v>
+      </c>
+      <c r="BY5">
+        <v>0</v>
+      </c>
+      <c r="BZ5">
+        <v>0</v>
+      </c>
+      <c r="CA5">
+        <v>0</v>
+      </c>
+      <c r="CB5">
+        <v>0</v>
+      </c>
+      <c r="CC5">
+        <v>0</v>
+      </c>
+      <c r="CD5">
+        <v>0</v>
+      </c>
+      <c r="CE5">
+        <v>0</v>
+      </c>
+      <c r="CF5">
+        <v>0</v>
+      </c>
+      <c r="CG5">
+        <v>0</v>
+      </c>
+      <c r="CH5">
+        <v>0</v>
+      </c>
+      <c r="CI5">
+        <v>0</v>
+      </c>
+      <c r="CJ5">
+        <v>0</v>
+      </c>
+      <c r="CK5">
+        <v>0</v>
+      </c>
+      <c r="CL5">
+        <v>0</v>
+      </c>
+      <c r="CM5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:91">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>201</v>
+      </c>
+      <c r="C6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>440</v>
+      </c>
+      <c r="M6">
+        <v>440</v>
+      </c>
+      <c r="N6">
+        <v>440</v>
+      </c>
+      <c r="O6">
+        <v>440</v>
+      </c>
+      <c r="P6">
+        <v>440</v>
+      </c>
+      <c r="Q6">
+        <v>440</v>
+      </c>
+      <c r="R6">
+        <v>440</v>
+      </c>
+      <c r="S6">
+        <v>440</v>
+      </c>
+      <c r="T6">
+        <v>440</v>
+      </c>
+      <c r="U6">
+        <v>440</v>
+      </c>
+      <c r="V6">
+        <v>440</v>
+      </c>
+      <c r="W6">
+        <v>440</v>
+      </c>
+      <c r="X6">
+        <v>440</v>
+      </c>
+      <c r="Y6">
+        <v>440</v>
+      </c>
+      <c r="Z6">
+        <v>440</v>
+      </c>
+      <c r="AA6">
+        <v>440</v>
+      </c>
+      <c r="AB6">
+        <v>440</v>
+      </c>
+      <c r="AC6">
+        <v>440</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>0</v>
+      </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>0</v>
+      </c>
+      <c r="BW6">
+        <v>0</v>
+      </c>
+      <c r="BX6">
+        <v>0</v>
+      </c>
+      <c r="BY6">
+        <v>0</v>
+      </c>
+      <c r="BZ6">
+        <v>0</v>
+      </c>
+      <c r="CA6">
+        <v>0</v>
+      </c>
+      <c r="CB6">
+        <v>0</v>
+      </c>
+      <c r="CC6">
+        <v>0</v>
+      </c>
+      <c r="CD6">
+        <v>0</v>
+      </c>
+      <c r="CE6">
+        <v>0</v>
+      </c>
+      <c r="CF6">
+        <v>0</v>
+      </c>
+      <c r="CG6">
+        <v>0</v>
+      </c>
+      <c r="CH6">
+        <v>0</v>
+      </c>
+      <c r="CI6">
+        <v>0</v>
+      </c>
+      <c r="CJ6">
+        <v>0</v>
+      </c>
+      <c r="CK6">
+        <v>0</v>
+      </c>
+      <c r="CL6">
+        <v>0</v>
+      </c>
+      <c r="CM6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:91">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>202</v>
+      </c>
+      <c r="C7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>44</v>
+      </c>
+      <c r="M7">
+        <v>44</v>
+      </c>
+      <c r="N7">
+        <v>44</v>
+      </c>
+      <c r="O7">
+        <v>44</v>
+      </c>
+      <c r="P7">
+        <v>44</v>
+      </c>
+      <c r="Q7">
+        <v>44</v>
+      </c>
+      <c r="R7">
+        <v>44</v>
+      </c>
+      <c r="S7">
+        <v>44</v>
+      </c>
+      <c r="T7">
+        <v>44</v>
+      </c>
+      <c r="U7">
+        <v>44</v>
+      </c>
+      <c r="V7">
+        <v>44</v>
+      </c>
+      <c r="W7">
+        <v>44</v>
+      </c>
+      <c r="X7">
+        <v>44</v>
+      </c>
+      <c r="Y7">
+        <v>44</v>
+      </c>
+      <c r="Z7">
+        <v>44</v>
+      </c>
+      <c r="AA7">
+        <v>44</v>
+      </c>
+      <c r="AB7">
+        <v>44</v>
+      </c>
+      <c r="AC7">
+        <v>44</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <v>0</v>
+      </c>
+      <c r="BH7">
+        <v>0</v>
+      </c>
+      <c r="BI7">
+        <v>0</v>
+      </c>
+      <c r="BJ7">
+        <v>0</v>
+      </c>
+      <c r="BK7">
+        <v>0</v>
+      </c>
+      <c r="BL7">
+        <v>0</v>
+      </c>
+      <c r="BM7">
+        <v>0</v>
+      </c>
+      <c r="BN7">
+        <v>0</v>
+      </c>
+      <c r="BO7">
+        <v>0</v>
+      </c>
+      <c r="BP7">
+        <v>0</v>
+      </c>
+      <c r="BQ7">
+        <v>0</v>
+      </c>
+      <c r="BR7">
+        <v>0</v>
+      </c>
+      <c r="BS7">
+        <v>0</v>
+      </c>
+      <c r="BT7">
+        <v>0</v>
+      </c>
+      <c r="BU7">
+        <v>0</v>
+      </c>
+      <c r="BV7">
+        <v>0</v>
+      </c>
+      <c r="BW7">
+        <v>0</v>
+      </c>
+      <c r="BX7">
+        <v>0</v>
+      </c>
+      <c r="BY7">
+        <v>0</v>
+      </c>
+      <c r="BZ7">
+        <v>0</v>
+      </c>
+      <c r="CA7">
+        <v>0</v>
+      </c>
+      <c r="CB7">
+        <v>0</v>
+      </c>
+      <c r="CC7">
+        <v>0</v>
+      </c>
+      <c r="CD7">
+        <v>0</v>
+      </c>
+      <c r="CE7">
+        <v>0</v>
+      </c>
+      <c r="CF7">
+        <v>0</v>
+      </c>
+      <c r="CG7">
+        <v>0</v>
+      </c>
+      <c r="CH7">
+        <v>0</v>
+      </c>
+      <c r="CI7">
+        <v>0</v>
+      </c>
+      <c r="CJ7">
+        <v>0</v>
+      </c>
+      <c r="CK7">
+        <v>0</v>
+      </c>
+      <c r="CL7">
+        <v>0</v>
+      </c>
+      <c r="CM7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:91">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>203</v>
+      </c>
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>98</v>
+      </c>
+      <c r="M8">
+        <v>98</v>
+      </c>
+      <c r="N8">
+        <v>98</v>
+      </c>
+      <c r="O8">
+        <v>98</v>
+      </c>
+      <c r="P8">
+        <v>98</v>
+      </c>
+      <c r="Q8">
+        <v>98</v>
+      </c>
+      <c r="R8">
+        <v>98</v>
+      </c>
+      <c r="S8">
+        <v>98</v>
+      </c>
+      <c r="T8">
+        <v>98</v>
+      </c>
+      <c r="U8">
+        <v>98</v>
+      </c>
+      <c r="V8">
+        <v>98</v>
+      </c>
+      <c r="W8">
+        <v>98</v>
+      </c>
+      <c r="X8">
+        <v>98</v>
+      </c>
+      <c r="Y8">
+        <v>98</v>
+      </c>
+      <c r="Z8">
+        <v>98</v>
+      </c>
+      <c r="AA8">
+        <v>98</v>
+      </c>
+      <c r="AB8">
+        <v>98</v>
+      </c>
+      <c r="AC8">
+        <v>98</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>0</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+      <c r="BC8">
+        <v>0</v>
+      </c>
+      <c r="BD8">
+        <v>0</v>
+      </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <v>0</v>
+      </c>
+      <c r="BG8">
+        <v>0</v>
+      </c>
+      <c r="BH8">
+        <v>0</v>
+      </c>
+      <c r="BI8">
+        <v>0</v>
+      </c>
+      <c r="BJ8">
+        <v>0</v>
+      </c>
+      <c r="BK8">
+        <v>0</v>
+      </c>
+      <c r="BL8">
+        <v>0</v>
+      </c>
+      <c r="BM8">
+        <v>0</v>
+      </c>
+      <c r="BN8">
+        <v>0</v>
+      </c>
+      <c r="BO8">
+        <v>0</v>
+      </c>
+      <c r="BP8">
+        <v>0</v>
+      </c>
+      <c r="BQ8">
+        <v>0</v>
+      </c>
+      <c r="BR8">
+        <v>0</v>
+      </c>
+      <c r="BS8">
+        <v>0</v>
+      </c>
+      <c r="BT8">
+        <v>0</v>
+      </c>
+      <c r="BU8">
+        <v>0</v>
+      </c>
+      <c r="BV8">
+        <v>0</v>
+      </c>
+      <c r="BW8">
+        <v>0</v>
+      </c>
+      <c r="BX8">
+        <v>0</v>
+      </c>
+      <c r="BY8">
+        <v>0</v>
+      </c>
+      <c r="BZ8">
+        <v>0</v>
+      </c>
+      <c r="CA8">
+        <v>0</v>
+      </c>
+      <c r="CB8">
+        <v>0</v>
+      </c>
+      <c r="CC8">
+        <v>0</v>
+      </c>
+      <c r="CD8">
+        <v>0</v>
+      </c>
+      <c r="CE8">
+        <v>0</v>
+      </c>
+      <c r="CF8">
+        <v>0</v>
+      </c>
+      <c r="CG8">
+        <v>0</v>
+      </c>
+      <c r="CH8">
+        <v>0</v>
+      </c>
+      <c r="CI8">
+        <v>0</v>
+      </c>
+      <c r="CJ8">
+        <v>0</v>
+      </c>
+      <c r="CK8">
+        <v>0</v>
+      </c>
+      <c r="CL8">
+        <v>0</v>
+      </c>
+      <c r="CM8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:91">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>204</v>
+      </c>
+      <c r="C9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9">
+        <v>0</v>
+      </c>
+      <c r="BC9">
+        <v>67</v>
+      </c>
+      <c r="BD9">
+        <v>67</v>
+      </c>
+      <c r="BE9">
+        <v>67</v>
+      </c>
+      <c r="BF9">
+        <v>67</v>
+      </c>
+      <c r="BG9">
+        <v>67</v>
+      </c>
+      <c r="BH9">
+        <v>67</v>
+      </c>
+      <c r="BI9">
+        <v>67</v>
+      </c>
+      <c r="BJ9">
+        <v>67</v>
+      </c>
+      <c r="BK9">
+        <v>67</v>
+      </c>
+      <c r="BL9">
+        <v>67</v>
+      </c>
+      <c r="BM9">
+        <v>0</v>
+      </c>
+      <c r="BN9">
+        <v>0</v>
+      </c>
+      <c r="BO9">
+        <v>0</v>
+      </c>
+      <c r="BP9">
+        <v>0</v>
+      </c>
+      <c r="BQ9">
+        <v>0</v>
+      </c>
+      <c r="BR9">
+        <v>0</v>
+      </c>
+      <c r="BS9">
+        <v>0</v>
+      </c>
+      <c r="BT9">
+        <v>0</v>
+      </c>
+      <c r="BU9">
+        <v>0</v>
+      </c>
+      <c r="BV9">
+        <v>0</v>
+      </c>
+      <c r="BW9">
+        <v>0</v>
+      </c>
+      <c r="BX9">
+        <v>0</v>
+      </c>
+      <c r="BY9">
+        <v>0</v>
+      </c>
+      <c r="BZ9">
+        <v>0</v>
+      </c>
+      <c r="CA9">
+        <v>0</v>
+      </c>
+      <c r="CB9">
+        <v>0</v>
+      </c>
+      <c r="CC9">
+        <v>0</v>
+      </c>
+      <c r="CD9">
+        <v>0</v>
+      </c>
+      <c r="CE9">
+        <v>0</v>
+      </c>
+      <c r="CF9">
+        <v>0</v>
+      </c>
+      <c r="CG9">
+        <v>0</v>
+      </c>
+      <c r="CH9">
+        <v>0</v>
+      </c>
+      <c r="CI9">
+        <v>0</v>
+      </c>
+      <c r="CJ9">
+        <v>0</v>
+      </c>
+      <c r="CK9">
+        <v>0</v>
+      </c>
+      <c r="CL9">
+        <v>0</v>
+      </c>
+      <c r="CM9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:91">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>205</v>
+      </c>
+      <c r="C10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>61</v>
+      </c>
+      <c r="AT10">
+        <v>61</v>
+      </c>
+      <c r="AU10">
+        <v>61</v>
+      </c>
+      <c r="AV10">
+        <v>61</v>
+      </c>
+      <c r="AW10">
+        <v>61</v>
+      </c>
+      <c r="AX10">
+        <v>61</v>
+      </c>
+      <c r="AY10">
+        <v>61</v>
+      </c>
+      <c r="AZ10">
+        <v>61</v>
+      </c>
+      <c r="BA10">
+        <v>61</v>
+      </c>
+      <c r="BB10">
+        <v>61</v>
+      </c>
+      <c r="BC10">
+        <v>0</v>
+      </c>
+      <c r="BD10">
+        <v>0</v>
+      </c>
+      <c r="BE10">
+        <v>0</v>
+      </c>
+      <c r="BF10">
+        <v>0</v>
+      </c>
+      <c r="BG10">
+        <v>0</v>
+      </c>
+      <c r="BH10">
+        <v>0</v>
+      </c>
+      <c r="BI10">
+        <v>0</v>
+      </c>
+      <c r="BJ10">
+        <v>0</v>
+      </c>
+      <c r="BK10">
+        <v>0</v>
+      </c>
+      <c r="BL10">
+        <v>0</v>
+      </c>
+      <c r="BM10">
+        <v>0</v>
+      </c>
+      <c r="BN10">
+        <v>0</v>
+      </c>
+      <c r="BO10">
+        <v>0</v>
+      </c>
+      <c r="BP10">
+        <v>0</v>
+      </c>
+      <c r="BQ10">
+        <v>0</v>
+      </c>
+      <c r="BR10">
+        <v>0</v>
+      </c>
+      <c r="BS10">
+        <v>0</v>
+      </c>
+      <c r="BT10">
+        <v>0</v>
+      </c>
+      <c r="BU10">
+        <v>0</v>
+      </c>
+      <c r="BV10">
+        <v>0</v>
+      </c>
+      <c r="BW10">
+        <v>0</v>
+      </c>
+      <c r="BX10">
+        <v>0</v>
+      </c>
+      <c r="BY10">
+        <v>0</v>
+      </c>
+      <c r="BZ10">
+        <v>0</v>
+      </c>
+      <c r="CA10">
+        <v>0</v>
+      </c>
+      <c r="CB10">
+        <v>0</v>
+      </c>
+      <c r="CC10">
+        <v>0</v>
+      </c>
+      <c r="CD10">
+        <v>0</v>
+      </c>
+      <c r="CE10">
+        <v>0</v>
+      </c>
+      <c r="CF10">
+        <v>0</v>
+      </c>
+      <c r="CG10">
+        <v>0</v>
+      </c>
+      <c r="CH10">
+        <v>0</v>
+      </c>
+      <c r="CI10">
+        <v>0</v>
+      </c>
+      <c r="CJ10">
+        <v>0</v>
+      </c>
+      <c r="CK10">
+        <v>0</v>
+      </c>
+      <c r="CL10">
+        <v>0</v>
+      </c>
+      <c r="CM10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:91">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>206</v>
+      </c>
+      <c r="C11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>0</v>
+      </c>
+      <c r="BB11">
+        <v>0</v>
+      </c>
+      <c r="BC11">
+        <v>0</v>
+      </c>
+      <c r="BD11">
+        <v>0</v>
+      </c>
+      <c r="BE11">
+        <v>0</v>
+      </c>
+      <c r="BF11">
+        <v>0</v>
+      </c>
+      <c r="BG11">
+        <v>0</v>
+      </c>
+      <c r="BH11">
+        <v>0</v>
+      </c>
+      <c r="BI11">
+        <v>0</v>
+      </c>
+      <c r="BJ11">
+        <v>0</v>
+      </c>
+      <c r="BK11">
+        <v>0</v>
+      </c>
+      <c r="BL11">
+        <v>0</v>
+      </c>
+      <c r="BM11">
+        <v>62</v>
+      </c>
+      <c r="BN11">
+        <v>62</v>
+      </c>
+      <c r="BO11">
+        <v>62</v>
+      </c>
+      <c r="BP11">
+        <v>62</v>
+      </c>
+      <c r="BQ11">
+        <v>62</v>
+      </c>
+      <c r="BR11">
+        <v>62</v>
+      </c>
+      <c r="BS11">
+        <v>62</v>
+      </c>
+      <c r="BT11">
+        <v>62</v>
+      </c>
+      <c r="BU11">
+        <v>62</v>
+      </c>
+      <c r="BV11">
+        <v>62</v>
+      </c>
+      <c r="BW11">
+        <v>0</v>
+      </c>
+      <c r="BX11">
+        <v>0</v>
+      </c>
+      <c r="BY11">
+        <v>0</v>
+      </c>
+      <c r="BZ11">
+        <v>0</v>
+      </c>
+      <c r="CA11">
+        <v>0</v>
+      </c>
+      <c r="CB11">
+        <v>0</v>
+      </c>
+      <c r="CC11">
+        <v>0</v>
+      </c>
+      <c r="CD11">
+        <v>0</v>
+      </c>
+      <c r="CE11">
+        <v>0</v>
+      </c>
+      <c r="CF11">
+        <v>0</v>
+      </c>
+      <c r="CG11">
+        <v>0</v>
+      </c>
+      <c r="CH11">
+        <v>0</v>
+      </c>
+      <c r="CI11">
+        <v>0</v>
+      </c>
+      <c r="CJ11">
+        <v>0</v>
+      </c>
+      <c r="CK11">
+        <v>0</v>
+      </c>
+      <c r="CL11">
+        <v>0</v>
+      </c>
+      <c r="CM11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:91">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>207</v>
+      </c>
+      <c r="C12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <v>0</v>
+      </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
+      <c r="AZ12">
+        <v>0</v>
+      </c>
+      <c r="BA12">
+        <v>0</v>
+      </c>
+      <c r="BB12">
+        <v>0</v>
+      </c>
+      <c r="BC12">
+        <v>0</v>
+      </c>
+      <c r="BD12">
+        <v>0</v>
+      </c>
+      <c r="BE12">
+        <v>0</v>
+      </c>
+      <c r="BF12">
+        <v>0</v>
+      </c>
+      <c r="BG12">
+        <v>0</v>
+      </c>
+      <c r="BH12">
+        <v>0</v>
+      </c>
+      <c r="BI12">
+        <v>0</v>
+      </c>
+      <c r="BJ12">
+        <v>0</v>
+      </c>
+      <c r="BK12">
+        <v>0</v>
+      </c>
+      <c r="BL12">
+        <v>0</v>
+      </c>
+      <c r="BM12">
+        <v>0</v>
+      </c>
+      <c r="BN12">
+        <v>0</v>
+      </c>
+      <c r="BO12">
+        <v>0</v>
+      </c>
+      <c r="BP12">
+        <v>0</v>
+      </c>
+      <c r="BQ12">
+        <v>0</v>
+      </c>
+      <c r="BR12">
+        <v>0</v>
+      </c>
+      <c r="BS12">
+        <v>0</v>
+      </c>
+      <c r="BT12">
+        <v>0</v>
+      </c>
+      <c r="BU12">
+        <v>0</v>
+      </c>
+      <c r="BV12">
+        <v>0</v>
+      </c>
+      <c r="BW12">
+        <v>5000</v>
+      </c>
+      <c r="BX12">
+        <v>5000</v>
+      </c>
+      <c r="BY12">
+        <v>5000</v>
+      </c>
+      <c r="BZ12">
+        <v>5000</v>
+      </c>
+      <c r="CA12">
+        <v>5000</v>
+      </c>
+      <c r="CB12">
+        <v>5000</v>
+      </c>
+      <c r="CC12">
+        <v>5000</v>
+      </c>
+      <c r="CD12">
+        <v>5000</v>
+      </c>
+      <c r="CE12">
+        <v>5000</v>
+      </c>
+      <c r="CF12">
+        <v>5000</v>
+      </c>
+      <c r="CG12">
+        <v>0</v>
+      </c>
+      <c r="CH12">
+        <v>0</v>
+      </c>
+      <c r="CI12">
+        <v>0</v>
+      </c>
+      <c r="CJ12">
+        <v>0</v>
+      </c>
+      <c r="CK12">
+        <v>0</v>
+      </c>
+      <c r="CL12">
+        <v>0</v>
+      </c>
+      <c r="CM12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:91">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>301</v>
+      </c>
+      <c r="C13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13">
+        <v>20</v>
+      </c>
+      <c r="F13">
+        <v>20</v>
+      </c>
+      <c r="G13">
+        <v>20</v>
+      </c>
+      <c r="H13">
+        <v>20</v>
+      </c>
+      <c r="I13">
+        <v>20</v>
+      </c>
+      <c r="J13">
+        <v>20</v>
+      </c>
+      <c r="K13">
+        <v>20</v>
+      </c>
+      <c r="L13">
+        <v>170</v>
+      </c>
+      <c r="M13">
+        <v>170</v>
+      </c>
+      <c r="N13">
+        <v>170</v>
+      </c>
+      <c r="O13">
+        <v>170</v>
+      </c>
+      <c r="P13">
+        <v>170</v>
+      </c>
+      <c r="Q13">
+        <v>170</v>
+      </c>
+      <c r="R13">
+        <v>170</v>
+      </c>
+      <c r="S13">
+        <v>170</v>
+      </c>
+      <c r="T13">
+        <v>170</v>
+      </c>
+      <c r="U13">
+        <v>170</v>
+      </c>
+      <c r="V13">
+        <v>170</v>
+      </c>
+      <c r="W13">
+        <v>170</v>
+      </c>
+      <c r="X13">
+        <v>170</v>
+      </c>
+      <c r="Y13">
+        <v>170</v>
+      </c>
+      <c r="Z13">
+        <v>170</v>
+      </c>
+      <c r="AA13">
+        <v>170</v>
+      </c>
+      <c r="AB13">
+        <v>170</v>
+      </c>
+      <c r="AC13">
+        <v>170</v>
+      </c>
+      <c r="AD13">
+        <v>20</v>
+      </c>
+      <c r="AE13">
+        <v>20</v>
+      </c>
+      <c r="AF13">
+        <v>20</v>
+      </c>
+      <c r="AG13">
+        <v>20</v>
+      </c>
+      <c r="AH13">
+        <v>20</v>
+      </c>
+      <c r="AI13">
+        <v>20</v>
+      </c>
+      <c r="AJ13">
+        <v>20</v>
+      </c>
+      <c r="AK13">
+        <v>20</v>
+      </c>
+      <c r="AL13">
+        <v>20</v>
+      </c>
+      <c r="AM13">
+        <v>20</v>
+      </c>
+      <c r="AN13">
+        <v>20</v>
+      </c>
+      <c r="AO13">
+        <v>20</v>
+      </c>
+      <c r="AP13">
+        <v>20</v>
+      </c>
+      <c r="AQ13">
+        <v>20</v>
+      </c>
+      <c r="AR13">
+        <v>20</v>
+      </c>
+      <c r="AS13">
+        <v>50</v>
+      </c>
+      <c r="AT13">
+        <v>30</v>
+      </c>
+      <c r="AU13">
+        <v>30</v>
+      </c>
+      <c r="AV13">
+        <v>30</v>
+      </c>
+      <c r="AW13">
+        <v>30</v>
+      </c>
+      <c r="AX13">
+        <v>30</v>
+      </c>
+      <c r="AY13">
+        <v>30</v>
+      </c>
+      <c r="AZ13">
+        <v>30</v>
+      </c>
+      <c r="BA13">
+        <v>30</v>
+      </c>
+      <c r="BB13">
+        <v>30</v>
+      </c>
+      <c r="BC13">
+        <v>30</v>
+      </c>
+      <c r="BD13">
+        <v>30</v>
+      </c>
+      <c r="BE13">
+        <v>30</v>
+      </c>
+      <c r="BF13">
+        <v>30</v>
+      </c>
+      <c r="BG13">
+        <v>30</v>
+      </c>
+      <c r="BH13">
+        <v>30</v>
+      </c>
+      <c r="BI13">
+        <v>30</v>
+      </c>
+      <c r="BJ13">
+        <v>30</v>
+      </c>
+      <c r="BK13">
+        <v>30</v>
+      </c>
+      <c r="BL13">
+        <v>30</v>
+      </c>
+      <c r="BM13">
+        <v>30</v>
+      </c>
+      <c r="BN13">
+        <v>30</v>
+      </c>
+      <c r="BO13">
+        <v>30</v>
+      </c>
+      <c r="BP13">
+        <v>30</v>
+      </c>
+      <c r="BQ13">
+        <v>30</v>
+      </c>
+      <c r="BR13">
+        <v>30</v>
+      </c>
+      <c r="BS13">
+        <v>30</v>
+      </c>
+      <c r="BT13">
+        <v>30</v>
+      </c>
+      <c r="BU13">
+        <v>30</v>
+      </c>
+      <c r="BV13">
+        <v>30</v>
+      </c>
+      <c r="BW13">
+        <v>150</v>
+      </c>
+      <c r="BX13">
+        <v>150</v>
+      </c>
+      <c r="BY13">
+        <v>150</v>
+      </c>
+      <c r="BZ13">
+        <v>150</v>
+      </c>
+      <c r="CA13">
+        <v>150</v>
+      </c>
+      <c r="CB13">
+        <v>150</v>
+      </c>
+      <c r="CC13">
+        <v>150</v>
+      </c>
+      <c r="CD13">
+        <v>150</v>
+      </c>
+      <c r="CE13">
+        <v>150</v>
+      </c>
+      <c r="CF13">
+        <v>150</v>
+      </c>
+      <c r="CG13">
+        <v>20</v>
+      </c>
+      <c r="CH13">
+        <v>20</v>
+      </c>
+      <c r="CI13">
+        <v>20</v>
+      </c>
+      <c r="CJ13">
+        <v>20</v>
+      </c>
+      <c r="CK13">
+        <v>20</v>
+      </c>
+      <c r="CL13">
+        <v>20</v>
+      </c>
+      <c r="CM13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:91">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>401</v>
+      </c>
+      <c r="C14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14">
+        <v>0.05</v>
+      </c>
+      <c r="F14">
+        <v>0.05</v>
+      </c>
+      <c r="G14">
+        <v>0.05</v>
+      </c>
+      <c r="H14">
+        <v>0.05</v>
+      </c>
+      <c r="I14">
+        <v>0.05</v>
+      </c>
+      <c r="J14">
+        <v>0.05</v>
+      </c>
+      <c r="K14">
+        <v>0.05</v>
+      </c>
+      <c r="L14">
+        <v>0.425</v>
+      </c>
+      <c r="M14">
+        <v>0.425</v>
+      </c>
+      <c r="N14">
+        <v>0.425</v>
+      </c>
+      <c r="O14">
+        <v>0.425</v>
+      </c>
+      <c r="P14">
+        <v>0.425</v>
+      </c>
+      <c r="Q14">
+        <v>0.425</v>
+      </c>
+      <c r="R14">
+        <v>0.425</v>
+      </c>
+      <c r="S14">
+        <v>0.425</v>
+      </c>
+      <c r="T14">
+        <v>0.425</v>
+      </c>
+      <c r="U14">
+        <v>0.425</v>
+      </c>
+      <c r="V14">
+        <v>0.425</v>
+      </c>
+      <c r="W14">
+        <v>0.425</v>
+      </c>
+      <c r="X14">
+        <v>0.425</v>
+      </c>
+      <c r="Y14">
+        <v>0.425</v>
+      </c>
+      <c r="Z14">
+        <v>0.425</v>
+      </c>
+      <c r="AA14">
+        <v>0.425</v>
+      </c>
+      <c r="AB14">
+        <v>0.425</v>
+      </c>
+      <c r="AC14">
+        <v>0.425</v>
+      </c>
+      <c r="AD14">
+        <v>0.05</v>
+      </c>
+      <c r="AE14">
+        <v>0.05</v>
+      </c>
+      <c r="AF14">
+        <v>0.05</v>
+      </c>
+      <c r="AG14">
+        <v>0.05</v>
+      </c>
+      <c r="AH14">
+        <v>0.05</v>
+      </c>
+      <c r="AI14">
+        <v>0.05</v>
+      </c>
+      <c r="AJ14">
+        <v>0.05</v>
+      </c>
+      <c r="AK14">
+        <v>0.05</v>
+      </c>
+      <c r="AL14">
+        <v>0.05</v>
+      </c>
+      <c r="AM14">
+        <v>0.05</v>
+      </c>
+      <c r="AN14">
+        <v>0.05</v>
+      </c>
+      <c r="AO14">
+        <v>0.05</v>
+      </c>
+      <c r="AP14">
+        <v>0.05</v>
+      </c>
+      <c r="AQ14">
+        <v>0.05</v>
+      </c>
+      <c r="AR14">
+        <v>0.05</v>
+      </c>
+      <c r="AS14">
+        <v>0.125</v>
+      </c>
+      <c r="AT14">
+        <v>0.075</v>
+      </c>
+      <c r="AU14">
+        <v>0.075</v>
+      </c>
+      <c r="AV14">
+        <v>0.075</v>
+      </c>
+      <c r="AW14">
+        <v>0.075</v>
+      </c>
+      <c r="AX14">
+        <v>0.075</v>
+      </c>
+      <c r="AY14">
+        <v>0.075</v>
+      </c>
+      <c r="AZ14">
+        <v>0.075</v>
+      </c>
+      <c r="BA14">
+        <v>0.075</v>
+      </c>
+      <c r="BB14">
+        <v>0.075</v>
+      </c>
+      <c r="BC14">
+        <v>0.075</v>
+      </c>
+      <c r="BD14">
+        <v>0.075</v>
+      </c>
+      <c r="BE14">
+        <v>0.075</v>
+      </c>
+      <c r="BF14">
+        <v>0.075</v>
+      </c>
+      <c r="BG14">
+        <v>0.075</v>
+      </c>
+      <c r="BH14">
+        <v>0.075</v>
+      </c>
+      <c r="BI14">
+        <v>0.075</v>
+      </c>
+      <c r="BJ14">
+        <v>0.075</v>
+      </c>
+      <c r="BK14">
+        <v>0.075</v>
+      </c>
+      <c r="BL14">
+        <v>0.075</v>
+      </c>
+      <c r="BM14">
+        <v>0.075</v>
+      </c>
+      <c r="BN14">
+        <v>0.075</v>
+      </c>
+      <c r="BO14">
+        <v>0.075</v>
+      </c>
+      <c r="BP14">
+        <v>0.075</v>
+      </c>
+      <c r="BQ14">
+        <v>0.075</v>
+      </c>
+      <c r="BR14">
+        <v>0.075</v>
+      </c>
+      <c r="BS14">
+        <v>0.075</v>
+      </c>
+      <c r="BT14">
+        <v>0.075</v>
+      </c>
+      <c r="BU14">
+        <v>0.075</v>
+      </c>
+      <c r="BV14">
+        <v>0.075</v>
+      </c>
+      <c r="BW14">
+        <v>0.375</v>
+      </c>
+      <c r="BX14">
+        <v>0.375</v>
+      </c>
+      <c r="BY14">
+        <v>0.375</v>
+      </c>
+      <c r="BZ14">
+        <v>0.375</v>
+      </c>
+      <c r="CA14">
+        <v>0.375</v>
+      </c>
+      <c r="CB14">
+        <v>0.375</v>
+      </c>
+      <c r="CC14">
+        <v>0.375</v>
+      </c>
+      <c r="CD14">
+        <v>0.375</v>
+      </c>
+      <c r="CE14">
+        <v>0.375</v>
+      </c>
+      <c r="CF14">
+        <v>0.375</v>
+      </c>
+      <c r="CG14">
+        <v>0.05</v>
+      </c>
+      <c r="CH14">
+        <v>0.05</v>
+      </c>
+      <c r="CI14">
+        <v>0.05</v>
+      </c>
+      <c r="CJ14">
+        <v>0.05</v>
+      </c>
+      <c r="CK14">
+        <v>0.05</v>
+      </c>
+      <c r="CL14">
+        <v>0.05</v>
+      </c>
+      <c r="CM14">
+        <v>0.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>